--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1392.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1392.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.386930125261671</v>
+        <v>1.190364599227905</v>
       </c>
       <c r="B1">
-        <v>2.487926636462548</v>
+        <v>2.241583108901978</v>
       </c>
       <c r="C1">
-        <v>3.018182129811481</v>
+        <v>6.553914070129395</v>
       </c>
       <c r="D1">
-        <v>3.464473284713834</v>
+        <v>2.303236722946167</v>
       </c>
       <c r="E1">
-        <v>1.305503715938807</v>
+        <v>1.189778685569763</v>
       </c>
     </row>
   </sheetData>
